--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 10C/PRUEBA_TEMPERATURA_6_10C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 10C/PRUEBA_TEMPERATURA_6_10C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,103 +73,127 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 06:01:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:02:49</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:03:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:04:51</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:05:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:06:53</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:07:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:08:55</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:09:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:10:57</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:11:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:12:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:13:59</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:15:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:16:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:17:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:18:03</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:19:04</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:20:05</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:21:06</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:22:07</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:23:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:24:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:25:09</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:26:10</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:27:11</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:28:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:29:13</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:30:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:31:15</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:32:16</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:33:17</t>
-  </si>
-  <si>
-    <t>2023-12-11 06:34:18</t>
+    <t>2023-12-10 08:04:54</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:05:53</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:06:52</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:07:51</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:08:51</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:09:50</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:10:49</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:11:48</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:12:48</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:13:47</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:14:46</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:15:46</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:16:45</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:17:44</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:18:43</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:19:43</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:20:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:21:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:22:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:23:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:24:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:25:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:26:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:27:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:28:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:29:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:30:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:31:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:32:33</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:33:32</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:34:32</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:35:31</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:36:30</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:37:30</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:38:29</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:39:28</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:40:27</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:41:27</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:42:26</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:43:25</t>
+  </si>
+  <si>
+    <t>2023-12-10 08:44:25</t>
   </si>
 </sst>
 </file>
@@ -179,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +342,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,12 +695,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -836,108 +868,129 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$34</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>24.493006993006901</c:v>
+                  <c:v>26.1975524475524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.870629370629299</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.690559440559401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.937062937062901</c:v>
+                  <c:v>19.379370629370602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.494755244755201</c:v>
+                  <c:v>18.330419580419498</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>17.019230769230699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.019230769230699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.445804195804101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.445804195804101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.6590909090908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.5279720279719</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>14.3968531468531</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>14.0034965034964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.872377622377501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.741258741258701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.6101398601398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6101398601398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.6101398601398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.6101398601398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>13.347902097902001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>13.347902097902001</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.8234265734265</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.561188811188799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.167832167832101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0367132867132</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0367132867132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.7744755244755</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.512237762237699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.7744755244755</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.9055944055944</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.3811188811188</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.643356643356601</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.9055944055944</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.7744755244755</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.3811188811188</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.643356643356601</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.643356643356601</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.3811188811188</c:v>
+                  <c:v>13.085664335664299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.7744755244755</c:v>
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.3811188811188</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.7744755244755</c:v>
+                  <c:v>13.4790209790209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.347902097902001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.347902097902001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.4790209790209</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.085664335664299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.347902097902001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,37 +1247,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.4790209790209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3811188811188</c:v>
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.4790209790209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.7744755244755</c:v>
+                  <c:v>13.4790209790209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.3811188811188</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.4790209790209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.7744755244755</c:v>
+                  <c:v>13.085664335664299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.347902097902001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.643356643356601</c:v>
+                  <c:v>13.216783216783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,10 +1374,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11.619516846789526</c:v>
+                  <c:v>13.347902097902011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.619516846789526</c:v>
+                  <c:v>13.347902097902011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,13 +3112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -3082,581 +3135,717 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>6</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.493006993006901</v>
+        <v>26.1975524475524</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.1550925935734995E-3</v>
+        <v>1.0289351856044959E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>6</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.870629370629299</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)</f>
+        <f>COUNT(E:E)-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>20.690559440559401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>19.379370629370602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>18.330419580419498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>17.019230769230699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17.019230769230699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>15.445804195804101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>15.445804195804101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>14.6590909090908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>14.5279720279719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>14.3968531468531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>14.0034965034964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>13.872377622377501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>13.741258741258701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>19.9038461538461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>17.937062937062901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>16.494755244755201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>14.3968531468531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>13.6101398601398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>13.6101398601398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>13.6101398601398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>13.6101398601398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>13.347902097902001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>13.347902097902001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>12.8234265734265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>12.561188811188799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>12.167832167832101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>12.0367132867132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>12.0367132867132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>11.7744755244755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>11.512237762237699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>11.7744755244755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>11.9055944055944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>11.3811188811188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>11.643356643356601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>11.9055944055944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>11.7744755244755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>11.3811188811188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>11.643356643356601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>11.643356643356601</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>6</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>11.3811188811188</v>
+        <v>13.085664335664299</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>6</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>11.643356643356601</v>
+        <v>13.216783216783099</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>6</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>11.643356643356601</v>
+        <v>13.347902097902001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>6</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>11.7744755244755</v>
+        <v>13.216783216783099</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>6</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>11.3811188811188</v>
+        <v>13.347902097902001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>6</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>11.643356643356601</v>
+        <v>13.347902097902001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>6</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>11.7744755244755</v>
+        <v>13.4790209790209</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>6</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>11.643356643356601</v>
+        <v>13.216783216783099</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>6</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>11.643356643356601</v>
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>13.347902097902001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>13.347902097902001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>13.4790209790209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>13.085664335664299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>13.347902097902001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13.216783216783099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>14.921328671328601</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3859,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,45 +3884,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:24:08</v>
+        <v>2023-12-10 08:33:32</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.347902097902001</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>11.619516846789526</v>
+        <v>13.347902097902011</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:25:09</v>
+        <v>2023-12-10 08:34:32</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.4790209790209</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>11.619516846789526</v>
+        <v>13.347902097902011</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:26:10</v>
+        <v>2023-12-10 08:35:31</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>11.3811188811188</v>
+        <v>13.216783216783099</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3742,35 +3931,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:27:11</v>
+        <v>2023-12-10 08:36:30</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.4790209790209</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.12871282568367812</v>
+        <v>0.13111888111888029</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:28:12</v>
+        <v>2023-12-10 08:37:30</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.347902097902001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:29:13</v>
+        <v>2023-12-10 08:38:29</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>11.7744755244755</v>
+        <v>13.4790209790209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3779,36 +3968,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:30:14</v>
+        <v>2023-12-10 08:39:28</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>11.3811188811188</v>
+        <v>13.347902097902001</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>11.7744755244755</v>
+        <v>13.4790209790209</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:31:15</v>
+        <v>2023-12-10 08:40:27</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.4790209790209</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:32:16</v>
+        <v>2023-12-10 08:41:27</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>11.7744755244755</v>
+        <v>13.085664335664299</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3817,25 +4006,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:33:17</v>
+        <v>2023-12-10 08:42:26</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.347902097902001</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>11.3811188811188</v>
+        <v>13.085664335664299</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 06:34:18</v>
+        <v>2023-12-10 08:43:25</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>11.643356643356601</v>
+        <v>13.216783216783099</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
